--- a/ride_sharing_framework/output_analysis/test/START_16_SEC_6.xlsx
+++ b/ride_sharing_framework/output_analysis/test/START_16_SEC_6.xlsx
@@ -484,23 +484,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>72 81 94</t>
+          <t>112 250</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -512,23 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>93 233</t>
+          <t>77 100 142</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G3" t="n">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
